--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_report.xlsx
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>14</v>
@@ -558,7 +558,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 03.Наименование на 5 стр</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 05.ИНН/КИО</t>
+          <t>03.Должник - 01.Должник - 03.ИНН/КИО</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 03.Наименование на 5 стр</t>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -674,26 +674,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>document_authority</t>
+          <t>document_case_date</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 07.Орган, выдавший документ</t>
+          <t>01.Документ-основание - 05.Дата дела</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ленинский РС г.Краснодар</t>
+          <t>Ш декабря вн</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ленинский РС г.Краснодар</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -704,22 +704,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>document_case_date</t>
+          <t>document_case_number</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 06.Дата дела</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ш декабря вн</t>
+          <t>пОООААОНННАНН</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2-3589/2024</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -734,22 +734,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>document_case_number</t>
+          <t>document_date</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 05.Номер дела</t>
+          <t>01.Документ-основание - 03.Дата документа</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>пОООААОНННАНН</t>
+          <t>ан мая 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2-3589/2024</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -764,52 +764,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>document_date</t>
+          <t>document_number</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 03.Дата документа</t>
+          <t>01.Документ-основание - 02.Номер документа</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ан мая 2025</t>
+          <t>ФС052185184</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>ФС052185184</t>
         </is>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>772000/19079</t>
+          <t>772000/19080</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>document_number</t>
+          <t>sum_total_amount_val</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 02.Номер документа</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Сумма - Общая сумма - 01.Значение</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ФС052185184</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ФС052185184</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -829,7 +829,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 03.Наименование на 5 стр</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 05.ИНН/КИО</t>
+          <t>03.Должник - 01.Должник - 03.ИНН/КИО</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 03.Наименование на 5 стр</t>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -940,26 +940,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>document_authority</t>
+          <t>document_case_date</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 07.Орган, выдавший документ</t>
+          <t>01.Документ-основание - 05.Дата дела</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>АС Удмуртской Респ</t>
+          <t>П марта 2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>АС Удмуртской Респ</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -970,22 +970,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>document_case_date</t>
+          <t>document_case_number</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 06.Дата дела</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>П марта 2025</t>
+          <t>17170/2023</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>А71-17170/2023</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -1000,22 +1000,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>document_case_number</t>
+          <t>document_date</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 05.Номер дела</t>
+          <t>01.Документ-основание - 03.Дата документа</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17170/2023</t>
+          <t>15ная 90059</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>А71-17170/2023</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -1030,52 +1030,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>document_date</t>
+          <t>document_number</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 03.Дата документа</t>
+          <t>01.Документ-основание - 02.Номер документа</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15ная 90059</t>
+          <t>ФС045577189</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>ФС045577189</t>
         </is>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>355554</t>
+          <t>355555</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>document_number</t>
+          <t>sum_total_amount_val</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 02.Номер документа</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Сумма - Общая сумма - 01.Значение</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ФС045577189</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ФС045577189</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 03.Наименование на 5 стр</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 05.ИНН/КИО</t>
+          <t>03.Должник - 01.Должник - 03.ИНН/КИО</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 03.Наименование на 5 стр</t>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1210,26 +1210,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>document_authority</t>
+          <t>document_case_date</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 07.Орган, выдавший документ</t>
+          <t>01.Документ-основание - 05.Дата дела</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Центральный РС г. Тольятти</t>
+          <t>февраля..</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Центральный РС г. Тольятти</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1240,26 +1240,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>document_case_date</t>
+          <t>document_case_number</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 06.Дата дела</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>февраля..</t>
+          <t>2-785/2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2-785/2025</t>
         </is>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1270,26 +1270,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>document_case_number</t>
+          <t>document_date</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 05.Номер дела</t>
+          <t>01.Документ-основание - 03.Дата документа</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-785/2025</t>
+          <t>21.04.2025</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2-785/2025</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1300,52 +1300,52 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>document_date</t>
+          <t>document_number</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 03.Дата документа</t>
+          <t>01.Документ-основание - 02.Номер документа</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21.04.2025</t>
+          <t>ФС033803038</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>ФС033803038</t>
         </is>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>776000/31120</t>
+          <t>776000/31121</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>document_number</t>
+          <t>sum_total_amount_val</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 02.Номер документа</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Сумма - Общая сумма - 01.Значение</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ФС033803038</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ФС033803038</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1396,7 +1396,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 06.Дата дела</t>
+          <t>01.Документ-основание - 05.Дата дела</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1406,7 +1406,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 03.Наименование на 5 стр</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1416,7 +1416,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 05.Номер дела</t>
+          <t>01.Документ-основание - 04.Номер дела</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1426,7 +1426,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03.Должник - 01.Должник - 03.Наименование на 5 стр</t>
+          <t>03.Должник - 01.Должник - 02.Наименование</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1444,7 +1444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,40 +1460,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>doc_class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>parent_file_names</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>package_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>attribute_name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>rus_attribute_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>text_extracted</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>text_normalized</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>text_verification</t>
         </is>
@@ -1507,40 +1512,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>claimer_entity_name</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>80.3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ОО ‹ «Об эщество защиты прав потребителей «Фемида», адрес</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>ООО " Об эщество защиты прав потребителей " Фемида" , адрес</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>ККОО "ОБЩЕСТВО ЗАЩИТЫ ПРАВ
 ПОТРЕБИТЕЛЕЙ "ФЕМИДА"</t>
@@ -1555,40 +1565,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>claimer_entity_type</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -1602,32 +1617,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>debtor_entity_inn</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>05. ИНН/КИО</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>7707111111</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>7707111111</t>
         </is>
@@ -1641,32 +1661,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>debtor_entity_kpp</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>06. КПП</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>770000001</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>770000001</t>
         </is>
@@ -1680,40 +1705,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>debtor_entity_name</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>83.15</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>ООО "МВМ"</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>ООО "МВМ"</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ООО "МВМ"</t>
         </is>
@@ -1727,40 +1757,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>debtor_entity_type</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>01. Тип должника</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -1774,40 +1809,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>document_authority</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>07. Орган, выдавший документ</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>96.1</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ленинский районный суд г.Краснодар</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Ленинский РС г.Краснодар</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Ленинский РС г.Краснодар</t>
         </is>
@@ -1821,40 +1861,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>document_case_date</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>06. Дата дела</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>54.37</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ш! декабря вн</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Ш декабря вн</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
@@ -1868,40 +1913,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>document_case_number</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>05. Номер дела</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>пОООААОНННАНН</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>пОООААОНННАНН</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>2-3589/2024</t>
         </is>
@@ -1915,36 +1965,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -1958,32 +2013,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -1997,40 +2057,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2044,36 +2109,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2087,36 +2157,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2130,40 +2205,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>document_date</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>03. Дата документа</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>93.9</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>ан мая 2025</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>ан мая 2025</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2025-05-30</t>
         </is>
@@ -2177,36 +2257,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2220,32 +2305,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2259,28 +2349,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>document_marks</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>10. Отметки на 7-ой стр.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -2294,40 +2389,45 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>document_number</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>02. Номер документа</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>83.37</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ФС № 052185184</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>ФС052185184</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ФС052185184</t>
         </is>
@@ -2341,40 +2441,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>document_process</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>09. Процесс</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
@@ -2388,40 +2493,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>document_type</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>01. Тип документа</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
@@ -2435,40 +2545,45 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_address</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>05. Адрес</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>350000, г. Краснодар, ул. Карасунская, д. 68, а/я 102</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>350000, г. Краснодар, ул. Карасунская, д. 68, а/я 102</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>350000, г. Краснодар, ул. Карасунская, д. 68, а/я 102</t>
         </is>
@@ -2482,40 +2597,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_bik</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>07. БИК</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>88.0</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>46000007</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>46000007</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>46000007</t>
         </is>
@@ -2529,40 +2649,45 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_inn</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>03. ИНН</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>96.2</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>2300000937</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>2300000937</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>2300000937</t>
         </is>
@@ -2576,28 +2701,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_kpp</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>04. КПП</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
         <is>
           <t>200000001</t>
         </is>
@@ -2611,40 +2741,45 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_name</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>02. Наименование получателя</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>95.13</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>общественная организация «Общество защиты прав потребителей «Фемида»</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>общественная организация " Общество защиты прав потребителей " Фемида"</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>ККОО "ОБЩЕСТВО ЗАЩИТЫ ПРАВ
 ПОТРЕБИТЕЛЕЙ "ФЕМИДА"</t>
@@ -2659,40 +2794,45 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_phone</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>06. Телефон</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>79282288282</t>
         </is>
@@ -2706,40 +2846,45 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_transfer_account</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>08. Расчетный счет</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>51.4</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>30101810500000000207</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>30101810500000000207</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>40703810000000000121</t>
         </is>
@@ -2753,40 +2898,45 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_type</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -2800,40 +2950,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>recovery_document_power_of_attorney</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>02. Наличие доверенности</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>73.6</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2847,40 +3002,45 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2894,36 +3054,41 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>01975232-4e2f-4345-9b54-67a4f368db74</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -2937,32 +3102,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>img1.pdf,  1_2025-06-06_11-18-13_1.pdf,  накл_2025-06-06_11-06-38_1.pdf</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>sum_total_amount_val</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>сумма</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -2976,40 +3146,45 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>claimer_entity_name</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>94.9</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Акционерное общество "АльфаСтрахование"</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>АО "АльфаСтрахование"</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>АО "АЛЬФАСТРАХОВАНИЕ"</t>
         </is>
@@ -3023,40 +3198,45 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>claimer_entity_type</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -3070,40 +3250,45 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>debtor_entity_inn</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>05. ИНН/КИО</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>96.6</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>1831081018</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>1000001018</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>1000001018</t>
         </is>
@@ -3117,32 +3302,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>debtor_entity_kpp</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>06. КПП</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
         <is>
           <t>183101001</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>183101001</t>
         </is>
@@ -3156,28 +3346,33 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>debtor_entity_name</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
         <is>
           <t>ООО ТПК "ВОСТОК-РЕСУРС"</t>
         </is>
@@ -3191,40 +3386,45 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>debtor_entity_type</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>01. Тип должника</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -3238,40 +3438,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>document_authority</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>07. Орган, выдавший документ</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>96.12</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Арбитражный суд Удмуртской Республики</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>АС Удмуртской Респ</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>АС Удмуртской Респ</t>
         </is>
@@ -3285,40 +3490,45 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>document_case_date</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>06. Дата дела</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>29.83</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>П „марта 2025</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>П марта 2025</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
@@ -3332,40 +3542,45 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>document_case_number</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>05. Номер дела</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>21.3</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>17170/2023_</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>17170/2023</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>А71-17170/2023</t>
         </is>
@@ -3379,32 +3594,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3418,36 +3638,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3461,36 +3686,41 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3504,36 +3734,41 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3547,40 +3782,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3594,40 +3834,45 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>document_date</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>03. Дата документа</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>29.15</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>15%ная 90059</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>15ная 90059</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>2025-05-15</t>
         </is>
@@ -3641,36 +3886,41 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3684,32 +3934,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -3723,28 +3978,33 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>document_marks</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>10. Отметки на 7-ой стр.</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -3758,40 +4018,45 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>document_number</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>02. Номер документа</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>84.33</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>ФС № 045577189</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>ФС045577189</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>ФС045577189</t>
         </is>
@@ -3805,40 +4070,45 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>document_process</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>09. Процесс</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
@@ -3852,40 +4122,45 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>document_type</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>01. Тип документа</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
@@ -3899,28 +4174,33 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_address</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>05. Адрес</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
         <is>
           <t>115280,
 Г.МОСКВА,
@@ -3940,28 +4220,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_bik</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>07. БИК</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
         <is>
           <t>044525593</t>
         </is>
@@ -3975,40 +4260,45 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_inn</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>03. ИНН</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>65.15</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
@@ -4022,40 +4312,45 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_kpp</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>04. КПП</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>56.6</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
@@ -4069,40 +4364,45 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_name</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>02. Наименование получателя</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>81.95</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>АО «АльфаСтрахование»</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>АО " АльфаСтрахование"</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>АО "АЛЬФАСТРАХОВАНИЕ"</t>
         </is>
@@ -4116,40 +4416,45 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_phone</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>06. Телефон</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>79608182786</t>
         </is>
@@ -4163,28 +4468,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_transfer_account</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>08. Расчетный счет</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
         <is>
           <t>40701810301850000366</t>
         </is>
@@ -4198,40 +4508,45 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_type</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -4245,40 +4560,45 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>recovery_document_power_of_attorney</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>02. Наличие доверенности</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>88.1</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4292,36 +4612,41 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4335,40 +4660,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4524</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4382,36 +4712,41 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>355554.pdf,  355554 (1).pdf</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>01975232-549d-ecd4-2751-9f72ca2b4525</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>sum_total_amount_val</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>сумма</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -4425,40 +4760,45 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>claimer_entity_name</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>87.07</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>ООЗПИ "АМПАРО", адрес</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>ООЗПИ "АМПАРО", адрес</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
         </is>
@@ -4472,40 +4812,45 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>claimer_entity_type</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -4519,40 +4864,45 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>debtor_entity_inn</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>05. ИНН/КИО</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>89.0</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>7743578549</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>7743578549</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>7743578549</t>
         </is>
@@ -4566,28 +4916,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>debtor_entity_kpp</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>06. КПП</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
         <is>
           <t>774301001</t>
         </is>
@@ -4601,40 +4956,45 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>debtor_entity_name</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>03. Наименование на 5 стр</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>95.7</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>АО "ЧЕРИ Автомобили РУС"</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>АО "ЧЕРИ Автомобили РУС"</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>АО "ЧЕРИ АВТОМОБИЛИ РУС"</t>
         </is>
@@ -4648,40 +5008,45 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>debtor_entity_type</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>01. Тип должника</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -4695,40 +5060,45 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>document_authority</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>07. Орган, выдавший документ</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>96.26</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Центральный районный суд г. Тольятти</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Центральный РС г. Тольятти</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Центральный РС г. Тольятти</t>
         </is>
@@ -4742,40 +5112,45 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>document_case_date</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>06. Дата дела</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>22.7</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>февраля..</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>февраля..</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
@@ -4789,40 +5164,45 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>document_case_number</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>05. Номер дела</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>76.7</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>2-785/2025</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>2-785/2025</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>2-785/2025</t>
         </is>
@@ -4836,32 +5216,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4875,36 +5260,41 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>document_court_stamp_</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>14. Наличие печати суда</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4918,36 +5308,41 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -4961,36 +5356,41 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5004,40 +5404,45 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>document_court_stamp_signature_</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5051,40 +5456,45 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>document_date</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>03. Дата документа</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>96.53</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>21 апреля 2025</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>21.04.2025</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
@@ -5098,36 +5508,41 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5141,32 +5556,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>document_judge_signature_</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>15. Наличие подписи судьи</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5180,28 +5600,33 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>document_marks</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>10. Отметки на 7-ой стр.</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
@@ -5215,40 +5640,45 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>document_number</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>02. Номер документа</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>91.83</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>ФС № 033803038</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>ФС033803038</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>ФС033803038</t>
         </is>
@@ -5262,40 +5692,45 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>document_process</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>09. Процесс</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Взыскать</t>
         </is>
@@ -5309,40 +5744,45 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>document_type</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>01. Тип документа</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Исполнительный лист</t>
         </is>
@@ -5356,28 +5796,33 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_address</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>05. Адрес</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
         <is>
           <t>445040,
 САМАРСКАЯ ОБЛАСТЬ,
@@ -5396,40 +5841,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_bik</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>07. БИК</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>96.5</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>111111111</t>
         </is>
@@ -5443,40 +5893,45 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_inn</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>03. ИНН</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>90.2</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>1111111111</t>
         </is>
@@ -5490,28 +5945,33 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_kpp</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>04. КПП</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
         <is>
           <t>632101001</t>
         </is>
@@ -5525,40 +5985,45 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_name</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>02. Наименование получателя</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>94.6</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Сотвапрвапрой Вавпрапрны Никапврпаврвны</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>Сотвапрвапрой Вавпрапрны Никапврпаврвны</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
         </is>
@@ -5572,40 +6037,45 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_phone</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>06. Телефон</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>70000000000</t>
         </is>
@@ -5619,40 +6089,45 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_transfer_account</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>08. Расчетный счет</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>4011111111111111111114</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>4011111111111111111114</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>4011111111111111111114</t>
         </is>
@@ -5666,40 +6141,45 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>recovery_claimer_entity_type</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>01. Тип взыскателя</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Юридическое лицо</t>
         </is>
@@ -5713,40 +6193,45 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>recovery_document_power_of_attorney</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>02. Наличие доверенности</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5760,40 +6245,45 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>recovery_document_signature_of_the_applicant</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>03. Подпись заявителя</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
@@ -5807,36 +6297,41 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>labour_commission</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>01975232-5529-4aca-591e-d7f6ad9b7ea1</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>sum_total_amount_val</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>сумма</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>100</t>
         </is>

--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_report.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>labour_commission</t>
+          <t>LABOUR_COMMISSION</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">

--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_report.xlsx
@@ -479,19 +479,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45855</v>
+        <v>45874</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>51.9</v>
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +689,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>11.12.2024</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -749,7 +749,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>30.05.2025</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -955,7 +955,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>11.03.2025</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>15.05.2025</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>03.02.2025</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1285,11 +1285,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>21.04.2025</t>
         </is>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1386,7 +1386,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 03.Дата документа</t>
+          <t>01.Документ-основание - 05.Дата дела</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1396,7 +1396,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01.Документ-основание - 05.Дата дела</t>
+          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1406,11 +1406,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02.Взыскатель - 01.Взыскатель - 02.Наименование</t>
+          <t>01.Документ-основание - 03.Дата документа</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">

--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_10_06_2025_report.xlsx
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45874</v>
+        <v>45897</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>772000/19080</t>
+          <t>772000/19079</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1055,7 +1055,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>355555</t>
+          <t>355554</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1325,7 +1325,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>776000/31121</t>
+          <t>776000/31120</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3097,7 +3097,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>772000/19080</t>
+          <t>772000/19079</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4707,7 +4707,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>355555</t>
+          <t>355554</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>776000/31121</t>
+          <t>776000/31120</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
